--- a/colunas.xlsx
+++ b/colunas.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://redeoba-my.sharepoint.com/personal/ramon_oliveira_redeoba_com_br/Documents/Documentos/Python Scripts/17 - Perfil frente de caixa/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_18A103E8F613C8264F2C4CFBD532DC766BEA1390" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4E0AD6E-6BA0-4AEC-832B-6C3C1A8ADBE3}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -301,33 +307,6 @@
     <t>SEXO_Masculino</t>
   </si>
   <si>
-    <t>ESTADOCIVIL_</t>
-  </si>
-  <si>
-    <t>ESTADOCIVIL_C</t>
-  </si>
-  <si>
-    <t>ESTADOCIVIL_D</t>
-  </si>
-  <si>
-    <t>ESTADOCIVIL_E</t>
-  </si>
-  <si>
-    <t>ESTADOCIVIL_I</t>
-  </si>
-  <si>
-    <t>ESTADOCIVIL_O</t>
-  </si>
-  <si>
-    <t>ESTADOCIVIL_P</t>
-  </si>
-  <si>
-    <t>ESTADOCIVIL_S</t>
-  </si>
-  <si>
-    <t>ESTADOCIVIL_V</t>
-  </si>
-  <si>
     <t>NACIONALIDADE_10</t>
   </si>
   <si>
@@ -368,13 +347,40 @@
   </si>
   <si>
     <t>GRAUINSTRUCAO_Pós Grad. completo</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO ESTADO CIVIL_</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO ESTADO CIVIL_C</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO ESTADO CIVIL_D</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO ESTADO CIVIL_E</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO ESTADO CIVIL_I</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO ESTADO CIVIL_O</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO ESTADO CIVIL_P</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO ESTADO CIVIL_S</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO ESTADO CIVIL_V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,13 +443,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -481,7 +495,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -515,6 +529,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -549,9 +564,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -724,14 +740,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DN1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="CJ1" workbookViewId="0">
+      <selection activeCell="CF1" sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:118">
+    <row r="1" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1018,73 +1036,73 @@
         <v>94</v>
       </c>
       <c r="CR1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DA1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/colunas.xlsx
+++ b/colunas.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://redeoba-my.sharepoint.com/personal/ramon_oliveira_redeoba_com_br/Documents/Documentos/Python Scripts/17 - Perfil frente de caixa/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_18A103E8F613C8264F2C4CFBD532DC766BEA1390" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4E0AD6E-6BA0-4AEC-832B-6C3C1A8ADBE3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>N° DEPENDENTES</t>
   </si>
@@ -307,13 +301,34 @@
     <t>SEXO_Masculino</t>
   </si>
   <si>
-    <t>NACIONALIDADE_10</t>
-  </si>
-  <si>
-    <t>NACIONALIDADE_89</t>
-  </si>
-  <si>
-    <t>NACIONALIDADE_92</t>
+    <t>DESCRIÇÃO ESTADO CIVIL_Casado</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO ESTADO CIVIL_Desquitado</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO ESTADO CIVIL_Divorciado</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO ESTADO CIVIL_Outros</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO ESTADO CIVIL_Separado</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO ESTADO CIVIL_Solteiro</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO ESTADO CIVIL_União Estável</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO ESTADO CIVIL_Viúvo</t>
+  </si>
+  <si>
+    <t>NACIONALIDADE_Brasileiro</t>
+  </si>
+  <si>
+    <t>NACIONALIDADE_Estrangeiro</t>
   </si>
   <si>
     <t>GRAUINSTRUCAO_5º ano completo do ensino fundamental</t>
@@ -347,40 +362,13 @@
   </si>
   <si>
     <t>GRAUINSTRUCAO_Pós Grad. completo</t>
-  </si>
-  <si>
-    <t>DESCRIÇÃO ESTADO CIVIL_</t>
-  </si>
-  <si>
-    <t>DESCRIÇÃO ESTADO CIVIL_C</t>
-  </si>
-  <si>
-    <t>DESCRIÇÃO ESTADO CIVIL_D</t>
-  </si>
-  <si>
-    <t>DESCRIÇÃO ESTADO CIVIL_E</t>
-  </si>
-  <si>
-    <t>DESCRIÇÃO ESTADO CIVIL_I</t>
-  </si>
-  <si>
-    <t>DESCRIÇÃO ESTADO CIVIL_O</t>
-  </si>
-  <si>
-    <t>DESCRIÇÃO ESTADO CIVIL_P</t>
-  </si>
-  <si>
-    <t>DESCRIÇÃO ESTADO CIVIL_S</t>
-  </si>
-  <si>
-    <t>DESCRIÇÃO ESTADO CIVIL_V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,21 +431,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -495,7 +475,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -529,7 +509,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -564,10 +543,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -740,16 +718,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DN1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:DL1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CJ1" workbookViewId="0">
-      <selection activeCell="CF1" sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:116">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,73 +1012,67 @@
         <v>94</v>
       </c>
       <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
